--- a/papers/papers_list.xlsx
+++ b/papers/papers_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Paper Name</t>
   </si>
@@ -29,6 +29,120 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Where Are The Gaps? A Systematic Mapping Study of Infrastructure as Code Research</t>
+  </si>
+  <si>
+    <t>Which factors influence practitioners' usage of build automation tools?</t>
+  </si>
+  <si>
+    <t>Source code metrics: A systematic mapping study</t>
+  </si>
+  <si>
+    <t>Anti-Patterns in Infrastructure as Code</t>
+  </si>
+  <si>
+    <t>Source Code Properties of Defective Infrastructure as Code Scripts</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>IaC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Fault Detection and Diagnosis in Robotic Systems </t>
+  </si>
+  <si>
+    <t>ACM Surveys</t>
+  </si>
+  <si>
+    <t>Evaluating different families of prediction methods for estimating software project outcomes</t>
+  </si>
+  <si>
+    <t>JSS</t>
+  </si>
+  <si>
+    <t>Which type of metrics are useful to deal with class imbalance in software defect prediction?</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Information and Software Technology</t>
+  </si>
+  <si>
+    <t>Evaluating defect prediction approaches: a benchmark and an extensive comparison</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>Empirical Software Engineering</t>
+  </si>
+  <si>
+    <t>Design evolution metrics for defect prediction in object oriented systems</t>
+  </si>
+  <si>
+    <t>Revisiting supervised and unsupervised models for effort-aware just-in-time defect prediction</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Metric-based software reliability prediction approach and its application</t>
+  </si>
+  <si>
+    <t>FEVER: An approach to analyze feature-oriented changes and artefact co-evolution in highly configurable systems</t>
+  </si>
+  <si>
+    <t>An empirical study of architecting for continuous delivery and deployment</t>
+  </si>
+  <si>
+    <t>An empirical study on software defect prediction with a simplified metric set</t>
+  </si>
+  <si>
+    <t>Semantic topic models for source code analysis</t>
+  </si>
+  <si>
+    <t>Robust Statistical Methods for Empirical Software Engineering</t>
+  </si>
+  <si>
+    <t>Search-based detection of model level changes</t>
+  </si>
+  <si>
+    <t>On the use of many quality attributes for software refactoring: a many-objective search-based software engineering approach</t>
+  </si>
+  <si>
+    <t>A comparative study of many-objective evolutionary algorithms for the discovery of software architectures</t>
+  </si>
+  <si>
+    <t>Towards building a universal defect prediction model with rank transformed predictors</t>
+  </si>
+  <si>
+    <t>Automated bug assignment: Ensemble-based machine learning in large scale industrial contexts</t>
+  </si>
+  <si>
+    <t>Breathing ontological knowledge into feature model synthesis: an empirical study</t>
+  </si>
+  <si>
+    <t>Mining architectural violations from version history</t>
+  </si>
+  <si>
+    <t>Evaluating the impact of design pattern and anti-pattern dependencies on changes and faults</t>
+  </si>
+  <si>
+    <t>Comparing and experimenting machine learning techniques for code smell detection</t>
+  </si>
+  <si>
+    <t>Assessing refactorings for usability in e-commerce applications</t>
+  </si>
+  <si>
+    <t>The impact of tangled code changes on defect prediction models</t>
+  </si>
+  <si>
+    <t>Studying just-in-time defect prediction using cross-project models</t>
   </si>
 </sst>
 </file>
@@ -382,38 +496,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+    <col min="1" max="1" width="105.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
